--- a/KINR6AE1.xlsx
+++ b/KINR6AE1.xlsx
@@ -17,7 +17,7 @@
     <t xml:space="preserve">Semaine : </t>
   </si>
   <si>
-    <t>vendredi</t>
+    <t>mardi</t>
   </si>
   <si>
     <t xml:space="preserve">BE (KINR6AE1)  </t>
@@ -35,7 +35,7 @@
     <t>TYPE_AUTRE</t>
   </si>
   <si>
-    <t>lundi</t>
+    <t>vendredi</t>
   </si>
   <si>
     <t>13:30</t>
@@ -101,7 +101,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="1">
-        <v>45002.0</v>
+        <v>46098.0</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>1</v>
@@ -140,7 +140,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n" s="1">
-        <v>45019.0</v>
+        <v>46115.0</v>
       </c>
       <c r="B5" t="s" s="0">
         <v>7</v>
